--- a/Code/Results/Cases/Case_5_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032733665469476</v>
+        <v>1.063857049188834</v>
       </c>
       <c r="D2">
-        <v>1.044296741461363</v>
+        <v>1.062743240390809</v>
       </c>
       <c r="E2">
-        <v>1.042606639713394</v>
+        <v>1.0686520845984</v>
       </c>
       <c r="F2">
-        <v>1.049492843657448</v>
+        <v>1.078065579570892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056916598473933</v>
+        <v>1.05206115945295</v>
       </c>
       <c r="J2">
-        <v>1.053977532660223</v>
+        <v>1.068820272934943</v>
       </c>
       <c r="K2">
-        <v>1.055171610237183</v>
+        <v>1.065463760880149</v>
       </c>
       <c r="L2">
-        <v>1.053502671382964</v>
+        <v>1.071356694158912</v>
       </c>
       <c r="M2">
-        <v>1.060303180001459</v>
+        <v>1.080745230416667</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038772711917509</v>
+        <v>1.065093264452941</v>
       </c>
       <c r="D3">
-        <v>1.048971147393648</v>
+        <v>1.063711229497852</v>
       </c>
       <c r="E3">
-        <v>1.04781048038156</v>
+        <v>1.06976363419444</v>
       </c>
       <c r="F3">
-        <v>1.055124204856774</v>
+        <v>1.079280221981994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059159071985733</v>
+        <v>1.052454004787267</v>
       </c>
       <c r="J3">
-        <v>1.058259439999236</v>
+        <v>1.069710114300827</v>
       </c>
       <c r="K3">
-        <v>1.059013550412265</v>
+        <v>1.066246240683858</v>
       </c>
       <c r="L3">
-        <v>1.057866090172925</v>
+        <v>1.072283528993062</v>
       </c>
       <c r="M3">
-        <v>1.065097192234719</v>
+        <v>1.081776717094959</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.042584511048643</v>
+        <v>1.065892923662332</v>
       </c>
       <c r="D4">
-        <v>1.051923934344107</v>
+        <v>1.064337270394392</v>
       </c>
       <c r="E4">
-        <v>1.051100498556016</v>
+        <v>1.070482917961386</v>
       </c>
       <c r="F4">
-        <v>1.058685471003284</v>
+        <v>1.08006639377219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060564857985381</v>
+        <v>1.052706863294401</v>
       </c>
       <c r="J4">
-        <v>1.060958251735709</v>
+        <v>1.070285102132902</v>
       </c>
       <c r="K4">
-        <v>1.061433609693704</v>
+        <v>1.066751623846446</v>
       </c>
       <c r="L4">
-        <v>1.060618954355298</v>
+        <v>1.072882696669001</v>
       </c>
       <c r="M4">
-        <v>1.06812367825654</v>
+        <v>1.082443799659464</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044165077305061</v>
+        <v>1.066229041488042</v>
       </c>
       <c r="D5">
-        <v>1.053148804156551</v>
+        <v>1.064600384040477</v>
       </c>
       <c r="E5">
-        <v>1.052465944652763</v>
+        <v>1.070785314909473</v>
       </c>
       <c r="F5">
-        <v>1.060163731176158</v>
+        <v>1.080396953763108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061145410584903</v>
+        <v>1.052812845102038</v>
       </c>
       <c r="J5">
-        <v>1.062076337199203</v>
+        <v>1.070526636950646</v>
       </c>
       <c r="K5">
-        <v>1.062435851853033</v>
+        <v>1.066963864412703</v>
       </c>
       <c r="L5">
-        <v>1.061760072179398</v>
+        <v>1.073134454712385</v>
       </c>
       <c r="M5">
-        <v>1.069378692206459</v>
+        <v>1.082724156683314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.044429205177957</v>
+        <v>1.066285473756094</v>
       </c>
       <c r="D6">
-        <v>1.053353518862664</v>
+        <v>1.064644557670262</v>
       </c>
       <c r="E6">
-        <v>1.052694194980618</v>
+        <v>1.070836089312904</v>
       </c>
       <c r="F6">
-        <v>1.060410854004873</v>
+        <v>1.080452459411557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061242286647177</v>
+        <v>1.052830621171062</v>
       </c>
       <c r="J6">
-        <v>1.062263121207867</v>
+        <v>1.070567180599297</v>
       </c>
       <c r="K6">
-        <v>1.062603261947674</v>
+        <v>1.066999487518011</v>
       </c>
       <c r="L6">
-        <v>1.061950741399665</v>
+        <v>1.073176718286176</v>
       </c>
       <c r="M6">
-        <v>1.069588420312009</v>
+        <v>1.082771224944406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.042605715437541</v>
+        <v>1.065897415114028</v>
       </c>
       <c r="D7">
-        <v>1.051940364953313</v>
+        <v>1.064340786421203</v>
       </c>
       <c r="E7">
-        <v>1.051118812142791</v>
+        <v>1.070486958563169</v>
       </c>
       <c r="F7">
-        <v>1.058705296714942</v>
+        <v>1.080070810519459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060572655878864</v>
+        <v>1.052708280684803</v>
       </c>
       <c r="J7">
-        <v>1.060973255555565</v>
+        <v>1.070288330278263</v>
       </c>
       <c r="K7">
-        <v>1.061447060425613</v>
+        <v>1.066754460688379</v>
       </c>
       <c r="L7">
-        <v>1.060634264727457</v>
+        <v>1.072886061189702</v>
       </c>
       <c r="M7">
-        <v>1.068140514891974</v>
+        <v>1.082447546134101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034795085708289</v>
+        <v>1.064274887918895</v>
       </c>
       <c r="D8">
-        <v>1.045891809443237</v>
+        <v>1.06307044216866</v>
       </c>
       <c r="E8">
-        <v>1.044381792834614</v>
+        <v>1.069027731099452</v>
       </c>
       <c r="F8">
-        <v>1.051413638821597</v>
+        <v>1.078476029609323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057684065074229</v>
+        <v>1.052194200905632</v>
       </c>
       <c r="J8">
-        <v>1.055439946754592</v>
+        <v>1.069121165172785</v>
       </c>
       <c r="K8">
-        <v>1.056484058467019</v>
+        <v>1.065728397495772</v>
       </c>
       <c r="L8">
-        <v>1.054992358600924</v>
+        <v>1.071670038246082</v>
       </c>
       <c r="M8">
-        <v>1.061939462795159</v>
+        <v>1.0810939011316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020247149993724</v>
+        <v>1.061413743593205</v>
       </c>
       <c r="D9">
-        <v>1.0346480234012</v>
+        <v>1.060829495441937</v>
       </c>
       <c r="E9">
-        <v>1.03187977273386</v>
+        <v>1.066456612621051</v>
       </c>
       <c r="F9">
-        <v>1.037889578846201</v>
+        <v>1.075667418608601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052228469891934</v>
+        <v>1.051278047836727</v>
       </c>
       <c r="J9">
-        <v>1.045104644589188</v>
+        <v>1.067058296391802</v>
       </c>
       <c r="K9">
-        <v>1.047202904137001</v>
+        <v>1.063913148223365</v>
       </c>
       <c r="L9">
-        <v>1.044475962732893</v>
+        <v>1.069522936318202</v>
       </c>
       <c r="M9">
-        <v>1.050396443238486</v>
+        <v>1.078705803555414</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009944029143874</v>
+        <v>1.059504807249836</v>
       </c>
       <c r="D10">
-        <v>1.026705140090048</v>
+        <v>1.059333830171814</v>
       </c>
       <c r="E10">
-        <v>1.023061489245613</v>
+        <v>1.064742605969384</v>
       </c>
       <c r="F10">
-        <v>1.028354631097559</v>
+        <v>1.073795991791328</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048316645144429</v>
+        <v>1.050660330551296</v>
       </c>
       <c r="J10">
-        <v>1.037768592628006</v>
+        <v>1.065678819800986</v>
       </c>
       <c r="K10">
-        <v>1.040608403549659</v>
+        <v>1.062698080156298</v>
       </c>
       <c r="L10">
-        <v>1.037026481833406</v>
+        <v>1.068088558832393</v>
       </c>
       <c r="M10">
-        <v>1.042230135062034</v>
+        <v>1.077111770974687</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005319933658947</v>
+        <v>1.058677829183443</v>
       </c>
       <c r="D11">
-        <v>1.023146384701489</v>
+        <v>1.058685772652102</v>
       </c>
       <c r="E11">
-        <v>1.019113424575841</v>
+        <v>1.064000420694308</v>
       </c>
       <c r="F11">
-        <v>1.024086550102723</v>
+        <v>1.072985854376029</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0465503404629</v>
+        <v>1.050391195233523</v>
       </c>
       <c r="J11">
-        <v>1.03447305972833</v>
+        <v>1.065080469426528</v>
       </c>
       <c r="K11">
-        <v>1.037644608177463</v>
+        <v>1.06217076458821</v>
       </c>
       <c r="L11">
-        <v>1.03368367229428</v>
+        <v>1.067466734095874</v>
       </c>
       <c r="M11">
-        <v>1.038568089035694</v>
+        <v>1.076421051263112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003576042901899</v>
+        <v>1.058370590515273</v>
       </c>
       <c r="D12">
-        <v>1.021805293458743</v>
+        <v>1.058444990092801</v>
       </c>
       <c r="E12">
-        <v>1.017626036031857</v>
+        <v>1.063724736970102</v>
       </c>
       <c r="F12">
-        <v>1.022478711203516</v>
+        <v>1.072684961777557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045882680188116</v>
+        <v>1.050290976223825</v>
       </c>
       <c r="J12">
-        <v>1.03322982548799</v>
+        <v>1.064858059353597</v>
       </c>
       <c r="K12">
-        <v>1.036526331656884</v>
+        <v>1.061974716978239</v>
       </c>
       <c r="L12">
-        <v>1.03242316455788</v>
+        <v>1.067235649451026</v>
       </c>
       <c r="M12">
-        <v>1.037187564373511</v>
+        <v>1.076164411365345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003951334887773</v>
+        <v>1.058436497110218</v>
       </c>
       <c r="D13">
-        <v>1.022093853111351</v>
+        <v>1.058496641738697</v>
       </c>
       <c r="E13">
-        <v>1.017946056018963</v>
+        <v>1.063783872230966</v>
       </c>
       <c r="F13">
-        <v>1.022824641939819</v>
+        <v>1.072749503002633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046026431236843</v>
+        <v>1.050312484875556</v>
       </c>
       <c r="J13">
-        <v>1.033497390413862</v>
+        <v>1.06490577416006</v>
       </c>
       <c r="K13">
-        <v>1.036767011836238</v>
+        <v>1.062016777984339</v>
       </c>
       <c r="L13">
-        <v>1.032694421520853</v>
+        <v>1.067285222951919</v>
       </c>
       <c r="M13">
-        <v>1.03748463233019</v>
+        <v>1.07621946495498</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005176330823393</v>
+        <v>1.058652434023604</v>
       </c>
       <c r="D14">
-        <v>1.023035929341964</v>
+        <v>1.058665870827347</v>
       </c>
       <c r="E14">
-        <v>1.018990911640353</v>
+        <v>1.063977632664099</v>
       </c>
       <c r="F14">
-        <v>1.023954113745229</v>
+        <v>1.072960981929704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046495391831533</v>
+        <v>1.050382916207071</v>
       </c>
       <c r="J14">
-        <v>1.034370691447964</v>
+        <v>1.065062088134635</v>
       </c>
       <c r="K14">
-        <v>1.037552532693855</v>
+        <v>1.062154562893819</v>
       </c>
       <c r="L14">
-        <v>1.033579870254895</v>
+        <v>1.067447634845819</v>
       </c>
       <c r="M14">
-        <v>1.038454396369677</v>
+        <v>1.076399838886475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005927548650752</v>
+        <v>1.058785471560915</v>
       </c>
       <c r="D15">
-        <v>1.023613787976209</v>
+        <v>1.058770129781686</v>
       </c>
       <c r="E15">
-        <v>1.019631867309789</v>
+        <v>1.064097014404407</v>
       </c>
       <c r="F15">
-        <v>1.024646990643515</v>
+        <v>1.073091284795619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046782778220408</v>
+        <v>1.050426278100382</v>
       </c>
       <c r="J15">
-        <v>1.034906187061743</v>
+        <v>1.065158377598268</v>
       </c>
       <c r="K15">
-        <v>1.038034178362213</v>
+        <v>1.062239432946161</v>
       </c>
       <c r="L15">
-        <v>1.034122888870668</v>
+        <v>1.067547687384048</v>
       </c>
       <c r="M15">
-        <v>1.03904917039403</v>
+        <v>1.076510963116101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010247332606507</v>
+        <v>1.059559682486749</v>
       </c>
       <c r="D16">
-        <v>1.026938701166506</v>
+        <v>1.059376830554194</v>
       </c>
       <c r="E16">
-        <v>1.023320658979703</v>
+        <v>1.064791862025169</v>
       </c>
       <c r="F16">
-        <v>1.028634824556819</v>
+        <v>1.073849762048636</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048432284946492</v>
+        <v>1.050678157138526</v>
       </c>
       <c r="J16">
-        <v>1.03798469549823</v>
+        <v>1.065718508545366</v>
       </c>
       <c r="K16">
-        <v>1.040802725666192</v>
+        <v>1.062733051309649</v>
       </c>
       <c r="L16">
-        <v>1.037245761934765</v>
+        <v>1.068129811778961</v>
       </c>
       <c r="M16">
-        <v>1.042470406373452</v>
+        <v>1.077157601228066</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012912195383164</v>
+        <v>1.060045216616109</v>
       </c>
       <c r="D17">
-        <v>1.02899149778528</v>
+        <v>1.059757283292209</v>
       </c>
       <c r="E17">
-        <v>1.025598860132694</v>
+        <v>1.065227717947015</v>
       </c>
       <c r="F17">
-        <v>1.031097926406697</v>
+        <v>1.074325587694898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049447110916211</v>
+        <v>1.050835709285124</v>
       </c>
       <c r="J17">
-        <v>1.039883062964011</v>
+        <v>1.066069587511151</v>
       </c>
       <c r="K17">
-        <v>1.042509604064261</v>
+        <v>1.063042367347255</v>
       </c>
       <c r="L17">
-        <v>1.039172457675692</v>
+        <v>1.068494766507408</v>
       </c>
       <c r="M17">
-        <v>1.044581815082012</v>
+        <v>1.077563086975599</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014450992734322</v>
+        <v>1.060328382431119</v>
       </c>
       <c r="D18">
-        <v>1.030177427377888</v>
+        <v>1.059979154063713</v>
       </c>
       <c r="E18">
-        <v>1.02691528575986</v>
+        <v>1.065481944572083</v>
       </c>
       <c r="F18">
-        <v>1.032521275050076</v>
+        <v>1.074603148439399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050032100489838</v>
+        <v>1.050927446710176</v>
       </c>
       <c r="J18">
-        <v>1.040978960042082</v>
+        <v>1.066274266868012</v>
       </c>
       <c r="K18">
-        <v>1.043494825555645</v>
+        <v>1.063222672103732</v>
       </c>
       <c r="L18">
-        <v>1.040285054763469</v>
+        <v>1.068707568118528</v>
       </c>
       <c r="M18">
-        <v>1.045801306563954</v>
+        <v>1.077799552496662</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014973094566034</v>
+        <v>1.060424928287103</v>
       </c>
       <c r="D19">
-        <v>1.030579896209764</v>
+        <v>1.060054799370613</v>
       </c>
       <c r="E19">
-        <v>1.02736208868841</v>
+        <v>1.065568629203464</v>
       </c>
       <c r="F19">
-        <v>1.033004382434243</v>
+        <v>1.0746977928796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050230409350081</v>
+        <v>1.050958699674368</v>
       </c>
       <c r="J19">
-        <v>1.041350737012263</v>
+        <v>1.066344040486407</v>
       </c>
       <c r="K19">
-        <v>1.04382903352896</v>
+        <v>1.063284132061961</v>
       </c>
       <c r="L19">
-        <v>1.040662555655256</v>
+        <v>1.068780116091314</v>
       </c>
       <c r="M19">
-        <v>1.046215115414698</v>
+        <v>1.0778801731321</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012627904240267</v>
+        <v>1.059993127353213</v>
       </c>
       <c r="D20">
-        <v>1.028772443370164</v>
+        <v>1.059716468552456</v>
       </c>
       <c r="E20">
-        <v>1.025355724202641</v>
+        <v>1.065180954823459</v>
       </c>
       <c r="F20">
-        <v>1.030835049073716</v>
+        <v>1.074274534084269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049338952435455</v>
+        <v>1.050818821994782</v>
       </c>
       <c r="J20">
-        <v>1.039680572736587</v>
+        <v>1.066031930320374</v>
       </c>
       <c r="K20">
-        <v>1.042327552688358</v>
+        <v>1.063009192471852</v>
       </c>
       <c r="L20">
-        <v>1.038966909751539</v>
+        <v>1.068455617603699</v>
       </c>
       <c r="M20">
-        <v>1.044356537421427</v>
+        <v>1.077519587114633</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004816341644894</v>
+        <v>1.058588847723192</v>
       </c>
       <c r="D21">
-        <v>1.022759052482458</v>
+        <v>1.058616038887782</v>
       </c>
       <c r="E21">
-        <v>1.018683816755602</v>
+        <v>1.063920575144264</v>
       </c>
       <c r="F21">
-        <v>1.023622146244193</v>
+        <v>1.072898705885368</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046357620057892</v>
+        <v>1.050362182847926</v>
       </c>
       <c r="J21">
-        <v>1.03411406471547</v>
+        <v>1.065016061887774</v>
       </c>
       <c r="K21">
-        <v>1.037321705954326</v>
+        <v>1.062113993628167</v>
       </c>
       <c r="L21">
-        <v>1.03331965830532</v>
+        <v>1.06739981167505</v>
       </c>
       <c r="M21">
-        <v>1.038169396298414</v>
+        <v>1.076346725367154</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9997517130596405</v>
+        <v>1.057705560216798</v>
       </c>
       <c r="D22">
-        <v>1.018866326011817</v>
+        <v>1.057923777518498</v>
       </c>
       <c r="E22">
-        <v>1.014367188643035</v>
+        <v>1.063128105822981</v>
       </c>
       <c r="F22">
-        <v>1.018956148210857</v>
+        <v>1.072033832064472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044415770328702</v>
+        <v>1.050073627880074</v>
       </c>
       <c r="J22">
-        <v>1.03050280742236</v>
+        <v>1.064376441094569</v>
       </c>
       <c r="K22">
-        <v>1.034073078762892</v>
+        <v>1.061550109509574</v>
       </c>
       <c r="L22">
-        <v>1.029659302395223</v>
+        <v>1.066735340122136</v>
       </c>
       <c r="M22">
-        <v>1.034161206815677</v>
+        <v>1.075608860958362</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002451752807069</v>
+        <v>1.05817384277179</v>
       </c>
       <c r="D23">
-        <v>1.020940993835827</v>
+        <v>1.058290794610076</v>
       </c>
       <c r="E23">
-        <v>1.016667563959606</v>
+        <v>1.063548211136577</v>
       </c>
       <c r="F23">
-        <v>1.021442650705841</v>
+        <v>1.072492303151141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045451815639531</v>
+        <v>1.050226733839834</v>
       </c>
       <c r="J23">
-        <v>1.032428210970209</v>
+        <v>1.06471560242604</v>
       </c>
       <c r="K23">
-        <v>1.035805236517818</v>
+        <v>1.061849133916374</v>
       </c>
       <c r="L23">
-        <v>1.031610571878907</v>
+        <v>1.067087650688795</v>
       </c>
       <c r="M23">
-        <v>1.036297703440622</v>
+        <v>1.076000059108402</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.01275641115667</v>
+        <v>1.060016664366464</v>
       </c>
       <c r="D24">
-        <v>1.028871459865914</v>
+        <v>1.05973491110289</v>
       </c>
       <c r="E24">
-        <v>1.025465625111577</v>
+        <v>1.065202085068531</v>
       </c>
       <c r="F24">
-        <v>1.030953873126567</v>
+        <v>1.074297602952558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049387845996752</v>
+        <v>1.050826453129025</v>
       </c>
       <c r="J24">
-        <v>1.039772104455763</v>
+        <v>1.06604894629009</v>
       </c>
       <c r="K24">
-        <v>1.04240984583839</v>
+        <v>1.063024183122517</v>
       </c>
       <c r="L24">
-        <v>1.039059822567347</v>
+        <v>1.068473307525438</v>
       </c>
       <c r="M24">
-        <v>1.044458367860838</v>
+        <v>1.077539242976066</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024108630614296</v>
+        <v>1.062153673845778</v>
       </c>
       <c r="D25">
-        <v>1.03762940993537</v>
+        <v>1.061409129120434</v>
       </c>
       <c r="E25">
-        <v>1.035192396635836</v>
+        <v>1.06712128974018</v>
       </c>
       <c r="F25">
-        <v>1.041472234112651</v>
+        <v>1.07639333221923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053685021694649</v>
+        <v>1.051516117333636</v>
       </c>
       <c r="J25">
-        <v>1.047851018718289</v>
+        <v>1.06759233729853</v>
       </c>
       <c r="K25">
-        <v>1.049670369131352</v>
+        <v>1.064383292923894</v>
       </c>
       <c r="L25">
-        <v>1.047267899665994</v>
+        <v>1.070078532653069</v>
       </c>
       <c r="M25">
-        <v>1.053459137336469</v>
+        <v>1.079323524676658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063857049188834</v>
+        <v>1.032733665469475</v>
       </c>
       <c r="D2">
-        <v>1.062743240390809</v>
+        <v>1.044296741461363</v>
       </c>
       <c r="E2">
-        <v>1.0686520845984</v>
+        <v>1.042606639713393</v>
       </c>
       <c r="F2">
-        <v>1.078065579570892</v>
+        <v>1.049492843657447</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05206115945295</v>
+        <v>1.056916598473933</v>
       </c>
       <c r="J2">
-        <v>1.068820272934943</v>
+        <v>1.053977532660223</v>
       </c>
       <c r="K2">
-        <v>1.065463760880149</v>
+        <v>1.055171610237182</v>
       </c>
       <c r="L2">
-        <v>1.071356694158912</v>
+        <v>1.053502671382963</v>
       </c>
       <c r="M2">
-        <v>1.080745230416667</v>
+        <v>1.060303180001458</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065093264452941</v>
+        <v>1.038772711917509</v>
       </c>
       <c r="D3">
-        <v>1.063711229497852</v>
+        <v>1.048971147393648</v>
       </c>
       <c r="E3">
-        <v>1.06976363419444</v>
+        <v>1.04781048038156</v>
       </c>
       <c r="F3">
-        <v>1.079280221981994</v>
+        <v>1.055124204856774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052454004787267</v>
+        <v>1.059159071985733</v>
       </c>
       <c r="J3">
-        <v>1.069710114300827</v>
+        <v>1.058259439999235</v>
       </c>
       <c r="K3">
-        <v>1.066246240683858</v>
+        <v>1.059013550412264</v>
       </c>
       <c r="L3">
-        <v>1.072283528993062</v>
+        <v>1.057866090172925</v>
       </c>
       <c r="M3">
-        <v>1.081776717094959</v>
+        <v>1.065097192234719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065892923662332</v>
+        <v>1.042584511048642</v>
       </c>
       <c r="D4">
-        <v>1.064337270394392</v>
+        <v>1.051923934344107</v>
       </c>
       <c r="E4">
-        <v>1.070482917961386</v>
+        <v>1.051100498556015</v>
       </c>
       <c r="F4">
-        <v>1.08006639377219</v>
+        <v>1.058685471003283</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052706863294401</v>
+        <v>1.060564857985381</v>
       </c>
       <c r="J4">
-        <v>1.070285102132902</v>
+        <v>1.060958251735707</v>
       </c>
       <c r="K4">
-        <v>1.066751623846446</v>
+        <v>1.061433609693703</v>
       </c>
       <c r="L4">
-        <v>1.072882696669001</v>
+        <v>1.060618954355297</v>
       </c>
       <c r="M4">
-        <v>1.082443799659464</v>
+        <v>1.068123678256539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066229041488042</v>
+        <v>1.044165077305063</v>
       </c>
       <c r="D5">
-        <v>1.064600384040477</v>
+        <v>1.053148804156552</v>
       </c>
       <c r="E5">
-        <v>1.070785314909473</v>
+        <v>1.052465944652763</v>
       </c>
       <c r="F5">
-        <v>1.080396953763108</v>
+        <v>1.060163731176159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052812845102038</v>
+        <v>1.061145410584903</v>
       </c>
       <c r="J5">
-        <v>1.070526636950646</v>
+        <v>1.062076337199203</v>
       </c>
       <c r="K5">
-        <v>1.066963864412703</v>
+        <v>1.062435851853034</v>
       </c>
       <c r="L5">
-        <v>1.073134454712385</v>
+        <v>1.061760072179398</v>
       </c>
       <c r="M5">
-        <v>1.082724156683314</v>
+        <v>1.069378692206459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066285473756094</v>
+        <v>1.044429205177956</v>
       </c>
       <c r="D6">
-        <v>1.064644557670262</v>
+        <v>1.053353518862663</v>
       </c>
       <c r="E6">
-        <v>1.070836089312904</v>
+        <v>1.052694194980617</v>
       </c>
       <c r="F6">
-        <v>1.080452459411557</v>
+        <v>1.060410854004871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052830621171062</v>
+        <v>1.061242286647177</v>
       </c>
       <c r="J6">
-        <v>1.070567180599297</v>
+        <v>1.062263121207866</v>
       </c>
       <c r="K6">
-        <v>1.066999487518011</v>
+        <v>1.062603261947673</v>
       </c>
       <c r="L6">
-        <v>1.073176718286176</v>
+        <v>1.061950741399664</v>
       </c>
       <c r="M6">
-        <v>1.082771224944406</v>
+        <v>1.069588420312008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065897415114028</v>
+        <v>1.042605715437541</v>
       </c>
       <c r="D7">
-        <v>1.064340786421203</v>
+        <v>1.051940364953312</v>
       </c>
       <c r="E7">
-        <v>1.070486958563169</v>
+        <v>1.051118812142791</v>
       </c>
       <c r="F7">
-        <v>1.080070810519459</v>
+        <v>1.058705296714942</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052708280684803</v>
+        <v>1.060572655878864</v>
       </c>
       <c r="J7">
-        <v>1.070288330278263</v>
+        <v>1.060973255555565</v>
       </c>
       <c r="K7">
-        <v>1.066754460688379</v>
+        <v>1.061447060425613</v>
       </c>
       <c r="L7">
-        <v>1.072886061189702</v>
+        <v>1.060634264727456</v>
       </c>
       <c r="M7">
-        <v>1.082447546134101</v>
+        <v>1.068140514891974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064274887918895</v>
+        <v>1.034795085708289</v>
       </c>
       <c r="D8">
-        <v>1.06307044216866</v>
+        <v>1.045891809443237</v>
       </c>
       <c r="E8">
-        <v>1.069027731099452</v>
+        <v>1.044381792834614</v>
       </c>
       <c r="F8">
-        <v>1.078476029609323</v>
+        <v>1.051413638821598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052194200905632</v>
+        <v>1.05768406507423</v>
       </c>
       <c r="J8">
-        <v>1.069121165172785</v>
+        <v>1.055439946754592</v>
       </c>
       <c r="K8">
-        <v>1.065728397495772</v>
+        <v>1.056484058467019</v>
       </c>
       <c r="L8">
-        <v>1.071670038246082</v>
+        <v>1.054992358600924</v>
       </c>
       <c r="M8">
-        <v>1.0810939011316</v>
+        <v>1.061939462795159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061413743593205</v>
+        <v>1.020247149993726</v>
       </c>
       <c r="D9">
-        <v>1.060829495441937</v>
+        <v>1.034648023401202</v>
       </c>
       <c r="E9">
-        <v>1.066456612621051</v>
+        <v>1.031879772733861</v>
       </c>
       <c r="F9">
-        <v>1.075667418608601</v>
+        <v>1.037889578846203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051278047836727</v>
+        <v>1.052228469891935</v>
       </c>
       <c r="J9">
-        <v>1.067058296391802</v>
+        <v>1.04510464458919</v>
       </c>
       <c r="K9">
-        <v>1.063913148223365</v>
+        <v>1.047202904137002</v>
       </c>
       <c r="L9">
-        <v>1.069522936318202</v>
+        <v>1.044475962732895</v>
       </c>
       <c r="M9">
-        <v>1.078705803555414</v>
+        <v>1.050396443238488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059504807249836</v>
+        <v>1.009944029143876</v>
       </c>
       <c r="D10">
-        <v>1.059333830171814</v>
+        <v>1.02670514009005</v>
       </c>
       <c r="E10">
-        <v>1.064742605969384</v>
+        <v>1.023061489245615</v>
       </c>
       <c r="F10">
-        <v>1.073795991791328</v>
+        <v>1.028354631097561</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050660330551296</v>
+        <v>1.04831664514443</v>
       </c>
       <c r="J10">
-        <v>1.065678819800986</v>
+        <v>1.037768592628008</v>
       </c>
       <c r="K10">
-        <v>1.062698080156298</v>
+        <v>1.040608403549661</v>
       </c>
       <c r="L10">
-        <v>1.068088558832393</v>
+        <v>1.037026481833408</v>
       </c>
       <c r="M10">
-        <v>1.077111770974687</v>
+        <v>1.042230135062036</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058677829183443</v>
+        <v>1.005319933658947</v>
       </c>
       <c r="D11">
-        <v>1.058685772652102</v>
+        <v>1.023146384701489</v>
       </c>
       <c r="E11">
-        <v>1.064000420694308</v>
+        <v>1.019113424575841</v>
       </c>
       <c r="F11">
-        <v>1.072985854376029</v>
+        <v>1.024086550102723</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050391195233523</v>
+        <v>1.0465503404629</v>
       </c>
       <c r="J11">
-        <v>1.065080469426528</v>
+        <v>1.034473059728331</v>
       </c>
       <c r="K11">
-        <v>1.06217076458821</v>
+        <v>1.037644608177464</v>
       </c>
       <c r="L11">
-        <v>1.067466734095874</v>
+        <v>1.03368367229428</v>
       </c>
       <c r="M11">
-        <v>1.076421051263112</v>
+        <v>1.038568089035694</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058370590515273</v>
+        <v>1.003576042901901</v>
       </c>
       <c r="D12">
-        <v>1.058444990092801</v>
+        <v>1.021805293458744</v>
       </c>
       <c r="E12">
-        <v>1.063724736970102</v>
+        <v>1.017626036031857</v>
       </c>
       <c r="F12">
-        <v>1.072684961777557</v>
+        <v>1.022478711203517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050290976223825</v>
+        <v>1.045882680188116</v>
       </c>
       <c r="J12">
-        <v>1.064858059353597</v>
+        <v>1.033229825487991</v>
       </c>
       <c r="K12">
-        <v>1.061974716978239</v>
+        <v>1.036526331656885</v>
       </c>
       <c r="L12">
-        <v>1.067235649451026</v>
+        <v>1.032423164557881</v>
       </c>
       <c r="M12">
-        <v>1.076164411365345</v>
+        <v>1.037187564373512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058436497110218</v>
+        <v>1.003951334887773</v>
       </c>
       <c r="D13">
-        <v>1.058496641738697</v>
+        <v>1.022093853111351</v>
       </c>
       <c r="E13">
-        <v>1.063783872230966</v>
+        <v>1.017946056018963</v>
       </c>
       <c r="F13">
-        <v>1.072749503002633</v>
+        <v>1.022824641939819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050312484875556</v>
+        <v>1.046026431236843</v>
       </c>
       <c r="J13">
-        <v>1.06490577416006</v>
+        <v>1.033497390413863</v>
       </c>
       <c r="K13">
-        <v>1.062016777984339</v>
+        <v>1.036767011836238</v>
       </c>
       <c r="L13">
-        <v>1.067285222951919</v>
+        <v>1.032694421520853</v>
       </c>
       <c r="M13">
-        <v>1.07621946495498</v>
+        <v>1.03748463233019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058652434023604</v>
+        <v>1.005176330823393</v>
       </c>
       <c r="D14">
-        <v>1.058665870827347</v>
+        <v>1.023035929341965</v>
       </c>
       <c r="E14">
-        <v>1.063977632664099</v>
+        <v>1.018990911640353</v>
       </c>
       <c r="F14">
-        <v>1.072960981929704</v>
+        <v>1.02395411374523</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050382916207071</v>
+        <v>1.046495391831533</v>
       </c>
       <c r="J14">
-        <v>1.065062088134635</v>
+        <v>1.034370691447964</v>
       </c>
       <c r="K14">
-        <v>1.062154562893819</v>
+        <v>1.037552532693855</v>
       </c>
       <c r="L14">
-        <v>1.067447634845819</v>
+        <v>1.033579870254896</v>
       </c>
       <c r="M14">
-        <v>1.076399838886475</v>
+        <v>1.038454396369678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058785471560915</v>
+        <v>1.005927548650752</v>
       </c>
       <c r="D15">
-        <v>1.058770129781686</v>
+        <v>1.023613787976209</v>
       </c>
       <c r="E15">
-        <v>1.064097014404407</v>
+        <v>1.019631867309789</v>
       </c>
       <c r="F15">
-        <v>1.073091284795619</v>
+        <v>1.024646990643515</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050426278100382</v>
+        <v>1.046782778220408</v>
       </c>
       <c r="J15">
-        <v>1.065158377598268</v>
+        <v>1.034906187061743</v>
       </c>
       <c r="K15">
-        <v>1.062239432946161</v>
+        <v>1.038034178362213</v>
       </c>
       <c r="L15">
-        <v>1.067547687384048</v>
+        <v>1.034122888870668</v>
       </c>
       <c r="M15">
-        <v>1.076510963116101</v>
+        <v>1.03904917039403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059559682486749</v>
+        <v>1.010247332606506</v>
       </c>
       <c r="D16">
-        <v>1.059376830554194</v>
+        <v>1.026938701166506</v>
       </c>
       <c r="E16">
-        <v>1.064791862025169</v>
+        <v>1.023320658979701</v>
       </c>
       <c r="F16">
-        <v>1.073849762048636</v>
+        <v>1.028634824556818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050678157138526</v>
+        <v>1.048432284946491</v>
       </c>
       <c r="J16">
-        <v>1.065718508545366</v>
+        <v>1.037984695498229</v>
       </c>
       <c r="K16">
-        <v>1.062733051309649</v>
+        <v>1.040802725666191</v>
       </c>
       <c r="L16">
-        <v>1.068129811778961</v>
+        <v>1.037245761934764</v>
       </c>
       <c r="M16">
-        <v>1.077157601228066</v>
+        <v>1.042470406373451</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060045216616109</v>
+        <v>1.012912195383164</v>
       </c>
       <c r="D17">
-        <v>1.059757283292209</v>
+        <v>1.028991497785279</v>
       </c>
       <c r="E17">
-        <v>1.065227717947015</v>
+        <v>1.025598860132693</v>
       </c>
       <c r="F17">
-        <v>1.074325587694898</v>
+        <v>1.031097926406696</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050835709285124</v>
+        <v>1.049447110916211</v>
       </c>
       <c r="J17">
-        <v>1.066069587511151</v>
+        <v>1.039883062964011</v>
       </c>
       <c r="K17">
-        <v>1.063042367347255</v>
+        <v>1.04250960406426</v>
       </c>
       <c r="L17">
-        <v>1.068494766507408</v>
+        <v>1.039172457675691</v>
       </c>
       <c r="M17">
-        <v>1.077563086975599</v>
+        <v>1.044581815082012</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060328382431119</v>
+        <v>1.014450992734323</v>
       </c>
       <c r="D18">
-        <v>1.059979154063713</v>
+        <v>1.030177427377889</v>
       </c>
       <c r="E18">
-        <v>1.065481944572083</v>
+        <v>1.02691528575986</v>
       </c>
       <c r="F18">
-        <v>1.074603148439399</v>
+        <v>1.032521275050077</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050927446710176</v>
+        <v>1.050032100489838</v>
       </c>
       <c r="J18">
-        <v>1.066274266868012</v>
+        <v>1.040978960042082</v>
       </c>
       <c r="K18">
-        <v>1.063222672103732</v>
+        <v>1.043494825555646</v>
       </c>
       <c r="L18">
-        <v>1.068707568118528</v>
+        <v>1.040285054763469</v>
       </c>
       <c r="M18">
-        <v>1.077799552496662</v>
+        <v>1.045801306563954</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060424928287103</v>
+        <v>1.014973094566032</v>
       </c>
       <c r="D19">
-        <v>1.060054799370613</v>
+        <v>1.030579896209762</v>
       </c>
       <c r="E19">
-        <v>1.065568629203464</v>
+        <v>1.027362088688408</v>
       </c>
       <c r="F19">
-        <v>1.0746977928796</v>
+        <v>1.033004382434241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050958699674368</v>
+        <v>1.05023040935008</v>
       </c>
       <c r="J19">
-        <v>1.066344040486407</v>
+        <v>1.041350737012261</v>
       </c>
       <c r="K19">
-        <v>1.063284132061961</v>
+        <v>1.043829033528959</v>
       </c>
       <c r="L19">
-        <v>1.068780116091314</v>
+        <v>1.040662555655253</v>
       </c>
       <c r="M19">
-        <v>1.0778801731321</v>
+        <v>1.046215115414696</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059993127353213</v>
+        <v>1.012627904240267</v>
       </c>
       <c r="D20">
-        <v>1.059716468552456</v>
+        <v>1.028772443370163</v>
       </c>
       <c r="E20">
-        <v>1.065180954823459</v>
+        <v>1.02535572420264</v>
       </c>
       <c r="F20">
-        <v>1.074274534084269</v>
+        <v>1.030835049073715</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050818821994782</v>
+        <v>1.049338952435455</v>
       </c>
       <c r="J20">
-        <v>1.066031930320374</v>
+        <v>1.039680572736586</v>
       </c>
       <c r="K20">
-        <v>1.063009192471852</v>
+        <v>1.042327552688357</v>
       </c>
       <c r="L20">
-        <v>1.068455617603699</v>
+        <v>1.038966909751538</v>
       </c>
       <c r="M20">
-        <v>1.077519587114633</v>
+        <v>1.044356537421426</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058588847723192</v>
+        <v>1.004816341644892</v>
       </c>
       <c r="D21">
-        <v>1.058616038887782</v>
+        <v>1.022759052482456</v>
       </c>
       <c r="E21">
-        <v>1.063920575144264</v>
+        <v>1.018683816755599</v>
       </c>
       <c r="F21">
-        <v>1.072898705885368</v>
+        <v>1.023622146244191</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050362182847926</v>
+        <v>1.04635762005789</v>
       </c>
       <c r="J21">
-        <v>1.065016061887774</v>
+        <v>1.034114064715467</v>
       </c>
       <c r="K21">
-        <v>1.062113993628167</v>
+        <v>1.037321705954324</v>
       </c>
       <c r="L21">
-        <v>1.06739981167505</v>
+        <v>1.033319658305318</v>
       </c>
       <c r="M21">
-        <v>1.076346725367154</v>
+        <v>1.038169396298412</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057705560216798</v>
+        <v>0.9997517130596404</v>
       </c>
       <c r="D22">
-        <v>1.057923777518498</v>
+        <v>1.018866326011817</v>
       </c>
       <c r="E22">
-        <v>1.063128105822981</v>
+        <v>1.014367188643035</v>
       </c>
       <c r="F22">
-        <v>1.072033832064472</v>
+        <v>1.018956148210856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050073627880074</v>
+        <v>1.044415770328702</v>
       </c>
       <c r="J22">
-        <v>1.064376441094569</v>
+        <v>1.030502807422359</v>
       </c>
       <c r="K22">
-        <v>1.061550109509574</v>
+        <v>1.034073078762891</v>
       </c>
       <c r="L22">
-        <v>1.066735340122136</v>
+        <v>1.029659302395222</v>
       </c>
       <c r="M22">
-        <v>1.075608860958362</v>
+        <v>1.034161206815678</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05817384277179</v>
+        <v>1.002451752807068</v>
       </c>
       <c r="D23">
-        <v>1.058290794610076</v>
+        <v>1.020940993835826</v>
       </c>
       <c r="E23">
-        <v>1.063548211136577</v>
+        <v>1.016667563959606</v>
       </c>
       <c r="F23">
-        <v>1.072492303151141</v>
+        <v>1.021442650705841</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050226733839834</v>
+        <v>1.045451815639531</v>
       </c>
       <c r="J23">
-        <v>1.06471560242604</v>
+        <v>1.032428210970209</v>
       </c>
       <c r="K23">
-        <v>1.061849133916374</v>
+        <v>1.035805236517817</v>
       </c>
       <c r="L23">
-        <v>1.067087650688795</v>
+        <v>1.031610571878906</v>
       </c>
       <c r="M23">
-        <v>1.076000059108402</v>
+        <v>1.036297703440622</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060016664366464</v>
+        <v>1.01275641115667</v>
       </c>
       <c r="D24">
-        <v>1.05973491110289</v>
+        <v>1.028871459865914</v>
       </c>
       <c r="E24">
-        <v>1.065202085068531</v>
+        <v>1.025465625111576</v>
       </c>
       <c r="F24">
-        <v>1.074297602952558</v>
+        <v>1.030953873126567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050826453129025</v>
+        <v>1.049387845996752</v>
       </c>
       <c r="J24">
-        <v>1.06604894629009</v>
+        <v>1.039772104455763</v>
       </c>
       <c r="K24">
-        <v>1.063024183122517</v>
+        <v>1.04240984583839</v>
       </c>
       <c r="L24">
-        <v>1.068473307525438</v>
+        <v>1.039059822567346</v>
       </c>
       <c r="M24">
-        <v>1.077539242976066</v>
+        <v>1.044458367860837</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062153673845778</v>
+        <v>1.024108630614295</v>
       </c>
       <c r="D25">
-        <v>1.061409129120434</v>
+        <v>1.037629409935369</v>
       </c>
       <c r="E25">
-        <v>1.06712128974018</v>
+        <v>1.035192396635835</v>
       </c>
       <c r="F25">
-        <v>1.07639333221923</v>
+        <v>1.041472234112651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051516117333636</v>
+        <v>1.053685021694649</v>
       </c>
       <c r="J25">
-        <v>1.06759233729853</v>
+        <v>1.047851018718288</v>
       </c>
       <c r="K25">
-        <v>1.064383292923894</v>
+        <v>1.049670369131351</v>
       </c>
       <c r="L25">
-        <v>1.070078532653069</v>
+        <v>1.047267899665993</v>
       </c>
       <c r="M25">
-        <v>1.079323524676658</v>
+        <v>1.053459137336467</v>
       </c>
     </row>
   </sheetData>
